--- a/individual_case_outputs/avey/266.xlsx
+++ b/individual_case_outputs/avey/266.xlsx
@@ -698,7 +698,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>pulmonary edema</t>
+          <t>pulmonary embolism</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>pulmonary edema</t>
+          <t>heart failure</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -803,13 +803,13 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>pulmonary edema</t>
+          <t>pulmonary embolism</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>pulmonary edema</t>
+          <t>pulmonary hypertension</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -998,7 +998,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>pulmonary edema</t>
+          <t>pulmonary embolism</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1006,7 +1006,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>renal artery stenosis</t>
+          <t>aortic stenosis</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
